--- a/entrenamiento.xlsx
+++ b/entrenamiento.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Antonio Rios\Desktop\Proyectos_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Antonio Rios\Desktop\P_Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -113,9 +113,6 @@
     <t>10 minutos</t>
   </si>
   <si>
-    <t>65-70%  FC máxima</t>
-  </si>
-  <si>
     <t>hombros 15 rep</t>
   </si>
   <si>
@@ -204,6 +201,9 @@
   </si>
   <si>
     <t>60 minutos en total</t>
+  </si>
+  <si>
+    <t>65-70%  FC máx</t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +692,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -711,124 +711,124 @@
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
         <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
         <v>32</v>
-      </c>
-      <c r="F20" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
         <v>34</v>
-      </c>
-      <c r="F21" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
         <v>36</v>
-      </c>
-      <c r="F22" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
         <v>38</v>
-      </c>
-      <c r="F23" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" t="s">
         <v>40</v>
-      </c>
-      <c r="F24" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
         <v>43</v>
       </c>
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" t="s">
         <v>48</v>
-      </c>
-      <c r="F29" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" t="s">
         <v>50</v>
-      </c>
-      <c r="F30" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" t="s">
         <v>52</v>
-      </c>
-      <c r="F31" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" t="s">
         <v>54</v>
-      </c>
-      <c r="F32" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" t="s">
         <v>56</v>
-      </c>
-      <c r="F33" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
